--- a/website.xlsx
+++ b/website.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -52,7 +52,7 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_1.TestCase_1</x:t>
+    <x:t>JiraTestCase_12722</x:t>
   </x:si>
   <x:si>
     <x:t>New Lead</x:t>
@@ -70,9 +70,6 @@
     <x:t>User should be navigated to the New  Lead Page</x:t>
   </x:si>
   <x:si>
-    <x:t>Approved</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Valid value for required field Company </x:t>
   </x:si>
   <x:si>
@@ -157,7 +154,7 @@
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
+    <x:t>JiraTestCase_12723</x:t>
   </x:si>
   <x:si>
     <x:t>View Lead</x:t>
@@ -682,9 +679,7 @@
       <x:c r="H2" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
       <x:c r="K2" s="0" t="s"/>
     </x:row>
@@ -694,16 +689,16 @@
       <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="H3" s="0" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>22</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
@@ -715,16 +710,16 @@
       <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="0" t="s"/>
       <x:c r="E4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
@@ -736,16 +731,16 @@
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -757,16 +752,16 @@
       <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -778,16 +773,16 @@
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="G7" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -799,16 +794,16 @@
       <x:c r="C8" s="0" t="s"/>
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
+      <x:c r="G8" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
+      <x:c r="H8" s="0" t="s">
         <x:v>41</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>42</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -821,13 +816,13 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="s">
+      <x:c r="H9" s="0" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>45</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -835,13 +830,13 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>47</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>48</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>14</x:v>
@@ -851,14 +846,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
       <x:c r="K10" s="0" t="s"/>
     </x:row>
@@ -869,13 +862,13 @@
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>52</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -883,13 +876,13 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>55</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>14</x:v>
@@ -899,14 +892,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
       <x:c r="K12" s="0" t="s"/>
     </x:row>
@@ -916,16 +907,16 @@
       <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F13" s="0" t="s">
+      <x:c r="G13" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G13" s="0" t="s">
+      <x:c r="H13" s="0" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>22</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -937,16 +928,16 @@
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F14" s="0" t="s">
+      <x:c r="G14" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G14" s="0" t="s">
+      <x:c r="H14" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -958,16 +949,16 @@
       <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F15" s="0" t="s">
+      <x:c r="G15" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="G15" s="0" t="s">
+      <x:c r="H15" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -979,16 +970,16 @@
       <x:c r="C16" s="0" t="s"/>
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="F16" s="0" t="s">
+      <x:c r="G16" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="G16" s="0" t="s">
+      <x:c r="H16" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1000,16 +991,16 @@
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="F17" s="0" t="s">
+      <x:c r="G17" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G17" s="0" t="s">
+      <x:c r="H17" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -1021,16 +1012,16 @@
       <x:c r="C18" s="0" t="s"/>
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="F18" s="0" t="s">
+      <x:c r="G18" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G18" s="0" t="s">
+      <x:c r="H18" s="0" t="s">
         <x:v>41</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>42</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1043,13 +1034,13 @@
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1057,13 +1048,13 @@
     </x:row>
     <x:row r="20" spans="1:11">
       <x:c r="A20" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>61</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>14</x:v>
@@ -1073,14 +1064,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
       <x:c r="K20" s="0" t="s"/>
     </x:row>
@@ -1091,13 +1080,13 @@
       <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
         <x:v>63</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>64</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
@@ -1110,13 +1099,13 @@
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
         <x:v>65</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>66</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
